--- a/data/trans_camb/P1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.681207357355459</v>
+        <v>-1.706294228806917</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.463806109852758</v>
+        <v>-1.654272669227784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.348671108258065</v>
+        <v>-2.289564166876132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7551409394753249</v>
+        <v>-0.7232526315138522</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.576302551508767</v>
+        <v>-2.630941853451118</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2859055412449469</v>
+        <v>-0.4460296604364919</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.6397494377744376</v>
+        <v>-0.5804436655135637</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.472344838148177</v>
+        <v>-1.428208041917822</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6748869069545513</v>
+        <v>-0.713309280717579</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.897939493141787</v>
+        <v>1.958507810574716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.398062671703423</v>
+        <v>2.264278825656311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.157932132786345</v>
+        <v>2.160003573225196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.006119961000613</v>
+        <v>4.42592498410807</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.532721485197595</v>
+        <v>1.391482151678072</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.655795746128903</v>
+        <v>7.996392426608888</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.527133960556384</v>
+        <v>2.527950848662821</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.395758446454096</v>
+        <v>1.439370274554821</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.728307437407885</v>
+        <v>3.893601422681455</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.02437643713069362</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4949573682903244</v>
+        <v>0.4949573682903241</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6724151288420143</v>
+        <v>-0.6310100956811154</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6038742711502652</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr"/>
+        <v>-0.6349837862841645</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2073377479366852</v>
+        <v>-0.2746158778414928</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6890694273311886</v>
+        <v>-0.715171437620563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1253521679864102</v>
+        <v>-0.1841649921986642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2236639188665147</v>
+        <v>-0.2263860506311608</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4708445795610456</v>
+        <v>-0.4923983225498244</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3180732417528074</v>
+        <v>-0.3126122139838911</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.438520794381306</v>
+        <v>2.58052672598033</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.049847126743384</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+        <v>2.652902186174835</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.058568408903175</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>2.164871655779269</v>
+        <v>2.450492338942947</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7917568208116647</v>
+        <v>0.9105552743433862</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.641797427818219</v>
+        <v>3.681685677363981</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.652106526035874</v>
+        <v>1.505162528997334</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.908434624468634</v>
+        <v>0.8868993732735168</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.065296259862643</v>
+        <v>2.042905252903575</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +860,7 @@
         <v>1.084772445666324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3877356453448225</v>
+        <v>0.3877356453448229</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.015657376999534</v>
@@ -874,7 +878,7 @@
         <v>-0.3607036208435422</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2498421429674928</v>
+        <v>0.2498421429674935</v>
       </c>
     </row>
     <row r="11">
@@ -885,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.635974395428224</v>
+        <v>-1.732679298366277</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6724683209580264</v>
+        <v>-0.8540208082028736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.728350367400355</v>
+        <v>-1.840030573749077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.932112099426491</v>
+        <v>-3.806925948043534</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.581914926130038</v>
+        <v>-4.563498458111938</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.212933809138637</v>
+        <v>-3.325703006392858</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.033041006012653</v>
+        <v>-1.965470225789961</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.859362731294623</v>
+        <v>-1.877088462446677</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.655809822079734</v>
+        <v>-1.791640588677547</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.740479703161992</v>
+        <v>1.846325793452444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.170502909483388</v>
+        <v>3.298671110841774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.193737108127317</v>
+        <v>3.323655668343785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.52028420645196</v>
+        <v>1.379774192604449</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3332558370828501</v>
+        <v>0.3750826727181594</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.939044270648167</v>
+        <v>3.07812651303191</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.23945596126579</v>
+        <v>1.215393459843679</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.181633830146332</v>
+        <v>1.30193373234208</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.390466267840845</v>
+        <v>2.359548029999151</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +965,7 @@
         <v>0.4119057245582676</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1472295250223875</v>
+        <v>0.1472295250223876</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1686992023045647</v>
@@ -979,7 +983,7 @@
         <v>-0.08608337080246728</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05962583293413251</v>
+        <v>0.05962583293413268</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4834794076388753</v>
+        <v>-0.5154128117211192</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2394579697325764</v>
+        <v>-0.2768595204712986</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5493286092817194</v>
+        <v>-0.6377274031743946</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5350892909139888</v>
+        <v>-0.5159105547538029</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.614854839398561</v>
+        <v>-0.6182916565641725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4651085649366434</v>
+        <v>-0.4584107611285433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4020324709922226</v>
+        <v>-0.4051842039757342</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3730337275370709</v>
+        <v>-0.3837771911775269</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3402023051176588</v>
+        <v>-0.3571143171043278</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9961551870710141</v>
+        <v>1.092960169799948</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.851658443976764</v>
+        <v>1.842415673951623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.838476949769559</v>
+        <v>1.830863468911845</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3716824149728299</v>
+        <v>0.2965703432551898</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07835028597343993</v>
+        <v>0.08785956602951339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.629313713949029</v>
+        <v>0.6698515347632441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3368174682899494</v>
+        <v>0.3438800788016483</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.342604827120359</v>
+        <v>0.4031863875752066</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6615985934851012</v>
+        <v>0.6870556871702868</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +1092,7 @@
         <v>0.006389654243382087</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4923719041246382</v>
+        <v>0.4923719041246388</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.802630390305975</v>
+        <v>-2.031485531349737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.828869955193013</v>
+        <v>-2.816943860856425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.584968076585932</v>
+        <v>-1.438517702961921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.206458885114499</v>
+        <v>3.060908245640836</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.642336861726989</v>
+        <v>-1.487191147477405</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.02785038058074</v>
+        <v>-2.378436317666702</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.440209831794158</v>
+        <v>1.306661351171395</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.651518917719619</v>
+        <v>-1.724918159020647</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.054837511032725</v>
+        <v>-1.226547601222902</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.896495451290469</v>
+        <v>2.716549891098821</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.422419521752051</v>
+        <v>1.523080292610195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.481731482978649</v>
+        <v>3.500220965361141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.966059373281281</v>
+        <v>8.853689744080322</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.992129799880833</v>
+        <v>3.192908050164457</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.517064390168409</v>
+        <v>2.332818241176716</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.400918101497579</v>
+        <v>5.20190512723977</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.483881916824871</v>
+        <v>1.632026040122876</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.31742892677122</v>
+        <v>2.149636586792216</v>
       </c>
     </row>
     <row r="19">
@@ -1193,7 +1197,7 @@
         <v>0.001379340959893627</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1062888082815031</v>
+        <v>0.1062888082815033</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3611766093367357</v>
+        <v>-0.3833262130694579</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5551506803355839</v>
+        <v>-0.5489304860992145</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3185410538558215</v>
+        <v>-0.2863819896129141</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4927310858864065</v>
+        <v>0.4505422865475251</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2790086640384015</v>
+        <v>-0.2389852170738609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3233069780309238</v>
+        <v>-0.3757214929826045</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.242361334138817</v>
+        <v>0.2086411217584737</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.304706506606028</v>
+        <v>-0.3144582709096415</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.189728853373064</v>
+        <v>-0.2212615263825892</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.047236753537399</v>
+        <v>0.9222196637120212</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4914203986316411</v>
+        <v>0.5343389180148814</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.222409426008782</v>
+        <v>1.162853453706208</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.311587478346736</v>
+        <v>2.136978058939778</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7864012714315348</v>
+        <v>0.8147519756964354</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6429618566508638</v>
+        <v>0.5596610951621824</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.387746803347257</v>
+        <v>1.346628807597783</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3798311436156236</v>
+        <v>0.4483838127432765</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6123027257371452</v>
+        <v>0.5434847132923462</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1288,7 @@
         <v>1.744870878079442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.599809117803828</v>
+        <v>1.599809117803826</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.221756383482842</v>
@@ -1293,7 +1297,7 @@
         <v>-0.1909750769035976</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.454574583731176</v>
+        <v>-1.454574583731175</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.577693432835711</v>
@@ -1302,7 +1306,7 @@
         <v>0.7895051818056984</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.1081614578870446</v>
+        <v>0.108161457887046</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9081605238495846</v>
+        <v>-0.9785752152715987</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.13456529582238</v>
+        <v>-0.8973933204823217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.085680631091332</v>
+        <v>-1.09110822456373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7115834002848952</v>
+        <v>-0.6499066620228552</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.459082772153475</v>
+        <v>-3.740729949868574</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.57655739997862</v>
+        <v>-4.641723397240978</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1433148447453477</v>
+        <v>0.1895783319935333</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.296667247411984</v>
+        <v>-1.40293232404527</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.975447855447626</v>
+        <v>-2.16621378370371</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.936142336558966</v>
+        <v>4.834538524551206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.765913652537136</v>
+        <v>4.405215795822468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.411595545108089</v>
+        <v>4.226489345279206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.177033838944167</v>
+        <v>6.945413101784369</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.466396388476903</v>
+        <v>3.5183781899742</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.462542604490465</v>
+        <v>1.207388254907934</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.986451652399707</v>
+        <v>5.113853325321545</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.121594868368621</v>
+        <v>3.264150138166798</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.057189136477591</v>
+        <v>2.123955734907489</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1393,7 @@
         <v>0.3801595657718506</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3485545819938091</v>
+        <v>0.3485545819938088</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3298696107002557</v>
@@ -1398,7 +1402,7 @@
         <v>-0.01955358095807948</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1489311712486422</v>
+        <v>-0.1489311712486421</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3595345074163979</v>
@@ -1407,7 +1411,7 @@
         <v>0.1101195173279153</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.01508626898276176</v>
+        <v>0.01508626898276195</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1768225286447248</v>
+        <v>-0.1735365316752171</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.19890277488295</v>
+        <v>-0.1584428407897338</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2082543918702718</v>
+        <v>-0.195028465844194</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05721767061836379</v>
+        <v>-0.06335627080555481</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2984289454737037</v>
+        <v>-0.3149362095976983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3856887884005761</v>
+        <v>-0.3907327682087078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0177331807114076</v>
+        <v>0.01737086619191445</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1612723106758424</v>
+        <v>-0.1632195012812026</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2297057651929038</v>
+        <v>-0.2480886898738046</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.538430089534786</v>
+        <v>1.453802704929156</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.507666504815976</v>
+        <v>1.444884330869995</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.428494229926788</v>
+        <v>1.336915793822112</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9323803052981716</v>
+        <v>0.8681886942976293</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4453455883547282</v>
+        <v>0.4570550666129758</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1859030722466219</v>
+        <v>0.1638040854388928</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8409259297676239</v>
+        <v>0.8565745768019173</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5117184849295728</v>
+        <v>0.5755253315919477</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3492447002331321</v>
+        <v>0.3602935723808975</v>
       </c>
     </row>
     <row r="28">
@@ -1507,7 +1511,7 @@
         <v>6.159981486251953</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.929351671280283</v>
+        <v>2.929351671280281</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.913424354455257</v>
@@ -1516,7 +1520,7 @@
         <v>2.262693920905412</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.372300130242085</v>
+        <v>1.372300130242082</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.188243549869408</v>
+        <v>-1.805872905399706</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.08956805952166</v>
+        <v>-5.368428689721057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.550170808676576</v>
+        <v>-3.636153445142487</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.977187995059915</v>
+        <v>4.892049037237219</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.088133064403682</v>
+        <v>1.845766382144822</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.073456374314546</v>
+        <v>-0.8180935553064662</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.640035488738973</v>
+        <v>2.818759374621063</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6259939907704517</v>
+        <v>-0.6003481023604865</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8985139430642636</v>
+        <v>-1.058615838214281</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.632342438033539</v>
+        <v>5.439799269775268</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.57731599934914</v>
+        <v>2.076917510379703</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.806403359568651</v>
+        <v>3.120166891486368</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.88060548181716</v>
+        <v>14.54054931983882</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.2506491664746</v>
+        <v>10.67158087648393</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.233828503829384</v>
+        <v>6.618395527934916</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.894068808167759</v>
+        <v>9.313679912154701</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.156559226808883</v>
+        <v>5.064761789066936</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.701051689728511</v>
+        <v>3.838682171126134</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1616,7 @@
         <v>0.6286552016825739</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.298954172154239</v>
+        <v>0.2989541721542388</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.683199875204645</v>
@@ -1621,7 +1625,7 @@
         <v>0.2614174312087386</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1585469300910805</v>
+        <v>0.1585469300910802</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.232033958138435</v>
+        <v>-0.2134829317034637</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5726332534851456</v>
+        <v>-0.5519291889038914</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3734725003341006</v>
+        <v>-0.385348896547022</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4219310716226781</v>
+        <v>0.3912664923006417</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1803611300265842</v>
+        <v>0.1213330360985568</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08296922926005566</v>
+        <v>-0.07111301995469801</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.266674176084694</v>
+        <v>0.2910098871413942</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.06738655801050328</v>
+        <v>-0.06403846740418759</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.09181594139878271</v>
+        <v>-0.1027793738900407</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9863110863882444</v>
+        <v>0.9482365224022528</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3110358861899655</v>
+        <v>0.4489279798485117</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5124849601694537</v>
+        <v>0.5856876943216383</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.964154130427055</v>
+        <v>1.846645904176837</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.493926310931651</v>
+        <v>1.344768465415126</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8443001884006959</v>
+        <v>0.8936399421711362</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.225043644949358</v>
+        <v>1.287560410674586</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7147266397027594</v>
+        <v>0.6710237824194655</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5346650611571893</v>
+        <v>0.5622578780392546</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1716,7 @@
         <v>-1.53753646571838</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.95521183528812</v>
+        <v>-2.955211835288118</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>7.066003521607373</v>
@@ -1721,7 +1725,7 @@
         <v>3.742254633530648</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2313736854357956</v>
+        <v>0.2313736854357928</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.814368099480025</v>
@@ -1730,7 +1734,7 @@
         <v>1.228655633842067</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.377636999445533</v>
+        <v>-1.377636999445532</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.679368033998978</v>
+        <v>-3.126511734507543</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.525915317315128</v>
+        <v>-6.167810835733253</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.188171556972997</v>
+        <v>-7.087356968883738</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.885497216659462</v>
+        <v>1.070395002304999</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.28264962449575</v>
+        <v>-1.636753223857563</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.389840271858851</v>
+        <v>-4.272537427000658</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.050703259178918</v>
+        <v>1.168348564567658</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.373828345749137</v>
+        <v>-2.248575719126586</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.753571054618222</v>
+        <v>-4.515091632023568</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.330983947278281</v>
+        <v>7.311869480574693</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.008053995565798</v>
+        <v>2.73140462755404</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.062630347255793</v>
+        <v>0.8256383836137341</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.80661519787195</v>
+        <v>12.36533023703996</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.941218845459129</v>
+        <v>8.77666823804252</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.622715633917423</v>
+        <v>5.002429721216477</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.465749847922732</v>
+        <v>8.656269141533274</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.636367773474301</v>
+        <v>4.573891795756341</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.758390696264484</v>
+        <v>1.619220378286106</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1821,7 @@
         <v>-0.1477762510005157</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.284032369747529</v>
+        <v>-0.2840323697475289</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.4971900624379076</v>
@@ -1826,7 +1830,7 @@
         <v>0.2633188349275547</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01628030565743951</v>
+        <v>0.01628030565743932</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3864166044230005</v>
@@ -1835,7 +1839,7 @@
         <v>0.09861583664234538</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1105735582434441</v>
+        <v>-0.110573558243444</v>
       </c>
     </row>
     <row r="38">
@@ -1846,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2193650129515902</v>
+        <v>-0.2417265649291099</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5008699967146241</v>
+        <v>-0.4953641811350691</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5402516673705799</v>
+        <v>-0.5436042305448866</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1144223566541177</v>
+        <v>0.0645923211591536</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07532989260194801</v>
+        <v>-0.1056488470033087</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2593216813638007</v>
+        <v>-0.2472932336673069</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06601775969634295</v>
+        <v>0.08336366274419445</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1692472796881745</v>
+        <v>-0.1625611013271538</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3230666415249278</v>
+        <v>-0.3106784561552496</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9117198017758494</v>
+        <v>0.8826434155677384</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3781194567963173</v>
+        <v>0.3485118688272126</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.154464495949974</v>
+        <v>0.1184259651014794</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.128298407031418</v>
+        <v>1.084511898402253</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7870717238511482</v>
+        <v>0.7367101049369206</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4091805814790623</v>
+        <v>0.4475205181695233</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7971666137632696</v>
+        <v>0.7918110291801485</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4430522619272766</v>
+        <v>0.4149121939706043</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1698145045195572</v>
+        <v>0.1612138267341317</v>
       </c>
     </row>
     <row r="40">
@@ -1935,7 +1939,7 @@
         <v>6.194105595776334</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.834363761282569</v>
+        <v>6.834363761282564</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>10.35922932457091</v>
@@ -1944,7 +1948,7 @@
         <v>2.076645966721915</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.188370550399338</v>
+        <v>2.188370550399341</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.747297781237685</v>
+        <v>-1.200703097966724</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.13923839815308</v>
+        <v>-11.03112514837227</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.08294004359285</v>
+        <v>-11.15548221528979</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.412285377676858</v>
+        <v>6.687329196379145</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.560775917422036</v>
+        <v>-0.1651562581457671</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.119036982125999</v>
+        <v>1.064085343289442</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.621684239757016</v>
+        <v>5.501970964344547</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.176009744881305</v>
+        <v>-2.216225613966809</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.158401716674748</v>
+        <v>-1.99787561813341</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.81455541789026</v>
+        <v>14.23770645210419</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.773179571020315</v>
+        <v>1.2669785361788</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.496856807768782</v>
+        <v>0.3268175523380079</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20.34066013381947</v>
+        <v>20.6591870212281</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.17003991008955</v>
+        <v>12.57563526399619</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.77598427259559</v>
+        <v>12.02527814201454</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.41660977148315</v>
+        <v>15.33321519230417</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.992162412677222</v>
+        <v>7.191906864109226</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.0732034124843</v>
+        <v>6.215366927249712</v>
       </c>
     </row>
     <row r="43">
@@ -2040,7 +2044,7 @@
         <v>0.3368307046388202</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3716474519001646</v>
+        <v>0.3716474519001643</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.5928703681287485</v>
@@ -2049,7 +2053,7 @@
         <v>0.1188487888614726</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1252429126884985</v>
+        <v>0.1252429126884986</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1008220965203802</v>
+        <v>-0.06827749686357318</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5273721150440971</v>
+        <v>-0.5570955283307689</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5205150511605785</v>
+        <v>-0.5304342139850619</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2921294585676462</v>
+        <v>0.3162473611713132</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02695806556800584</v>
+        <v>-0.0112181735901154</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04769131800788602</v>
+        <v>0.05302575767316156</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2933618217179825</v>
+        <v>0.2706574381244846</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1131988553160108</v>
+        <v>-0.1211408707011851</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1058476207413965</v>
+        <v>-0.09470041329944741</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.021307438216054</v>
+        <v>1.11890953423309</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1846518179495224</v>
+        <v>0.1200886853781205</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1331535975788227</v>
+        <v>0.05370969209982614</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.362069434077466</v>
+        <v>1.364318215177479</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8752827236237678</v>
+        <v>0.8396099591526028</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7786177337373328</v>
+        <v>0.8223110833767516</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.045871567990234</v>
+        <v>0.9942214208625711</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.463207032600528</v>
+        <v>0.4863652977514173</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4024870376427695</v>
+        <v>0.4252668099130951</v>
       </c>
     </row>
     <row r="46">
@@ -2158,7 +2162,7 @@
         <v>1.192130252021803</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.466957182370032</v>
+        <v>1.466957182370034</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4029323904941162</v>
+        <v>0.3351946384440095</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.9531810188207355</v>
+        <v>-1.164829981057757</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5526612031054742</v>
+        <v>-0.5555080975179282</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.9228190866145</v>
+        <v>3.794207513181717</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.8290644753086449</v>
+        <v>0.6576031331209855</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.934141671283539</v>
+        <v>0.9828274866805203</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.569165623428129</v>
+        <v>2.560220311458695</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.307388150717867</v>
+        <v>0.2932613761369085</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.4801582231632586</v>
+        <v>0.6573449041141491</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.784713472193365</v>
+        <v>2.662226826781416</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.307345548645158</v>
+        <v>1.08620955708903</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.802343108772305</v>
+        <v>1.590990963726951</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.042344896655739</v>
+        <v>6.967373470113604</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.740773609038092</v>
+        <v>3.700645201211304</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.554048265556513</v>
+        <v>3.568501100853057</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.4837149860664</v>
+        <v>4.650314032359081</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.221610674855818</v>
+        <v>2.150208419001085</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.332338584217085</v>
+        <v>2.387534181445877</v>
       </c>
     </row>
     <row r="49">
@@ -2263,7 +2267,7 @@
         <v>0.1734912874193875</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2134869824223196</v>
+        <v>0.2134869824223198</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0658333700311371</v>
+        <v>0.05952204042919877</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1640153674946625</v>
+        <v>-0.1913044418984059</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1000881317776135</v>
+        <v>-0.09528633174406986</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4157313982911451</v>
+        <v>0.421837251167711</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08467134287263627</v>
+        <v>0.07006854950230999</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.100197727065281</v>
+        <v>0.1079354836121378</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3522384315067462</v>
+        <v>0.3482420695563835</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.03983785750702038</v>
+        <v>0.04009086968169628</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.06163183391697449</v>
+        <v>0.09019684523067566</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6067382942365688</v>
+        <v>0.5747964087121562</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2824983244412974</v>
+        <v>0.2263919285207011</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.381206560090006</v>
+        <v>0.3421653324864618</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8920163574618788</v>
+        <v>0.8927576098884394</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4778906249425127</v>
+        <v>0.4744245673478476</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4610583499124604</v>
+        <v>0.4625726454418022</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7068560795907982</v>
+        <v>0.7290568663860859</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3441555568084582</v>
+        <v>0.3378558691730507</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3557503938009229</v>
+        <v>0.3698390003714277</v>
       </c>
     </row>
     <row r="52">
